--- a/plantillas/PlantillaAnalisisRazonado.xlsx
+++ b/plantillas/PlantillaAnalisisRazonado.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\evaluacion\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDEBD2D-2C91-4943-9C12-A943E1748F72}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CA289C-4BF2-4B32-BDBC-E3C36CF8BB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="bFjQfOIkAPDf7AUlqgypypTMSEf1aCQlcmIrTUra8Bu2bbbpKHHKNYO4DhJPtCd4+MXuCiT43euVncLA9ScStA==" workbookSaltValue="+hdS8LAhZNPvUQdDMX5CIw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="86">
   <si>
     <t>Emp:</t>
   </si>
@@ -249,19 +249,37 @@
     <t>Resultado del Ejercicio</t>
   </si>
   <si>
-    <t>Año1</t>
-  </si>
-  <si>
-    <t>Año2</t>
-  </si>
-  <si>
-    <t>Año3</t>
-  </si>
-  <si>
-    <t>Año4</t>
-  </si>
-  <si>
-    <t>Año5</t>
+    <t>Año 1 es el más antiguo y año 5 es el más reciente --&gt;</t>
+  </si>
+  <si>
+    <t>Notas:</t>
+  </si>
+  <si>
+    <t>2. Celdas en gris pueden ser modificadas con los datos de su empresa.</t>
+  </si>
+  <si>
+    <t>3. No vincule las celdas en gris a datos de otros archivos Excel.</t>
+  </si>
+  <si>
+    <t>1. Los periodos pueden ser calendarios u otro corte, como por ejemplo terminados</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a Jun-19, Sep-21, etc. Los periodos que se dejan en esta plantilla son sólo un ejemplo.</t>
+  </si>
+  <si>
+    <t>Periodo 1</t>
+  </si>
+  <si>
+    <t>Periodo 2</t>
+  </si>
+  <si>
+    <t>Periodo 3</t>
+  </si>
+  <si>
+    <t>Periodo 4</t>
+  </si>
+  <si>
+    <t>Periodo 5</t>
   </si>
 </sst>
 </file>
@@ -271,7 +289,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\);\ \-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -288,8 +306,34 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,8 +352,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -455,11 +505,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -505,6 +635,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -514,21 +650,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -840,8 +989,10 @@
   <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.5" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -862,8 +1013,10 @@
       <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="D1" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="44"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -875,7 +1028,9 @@
       <c r="C2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="46" t="s">
+        <v>79</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -888,7 +1043,9 @@
       <c r="C3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="46" t="s">
+        <v>80</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -901,7 +1058,9 @@
       <c r="C4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="46" t="s">
+        <v>77</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -910,60 +1069,74 @@
     <row r="5" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="46" t="s">
+        <v>78</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="35"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+    <row r="7" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="B7" s="41"/>
+      <c r="C7" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="49" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="H8" s="40" t="s">
-        <v>79</v>
+      <c r="C8" s="40"/>
+      <c r="D8" s="42">
+        <v>2017</v>
+      </c>
+      <c r="E8" s="42">
+        <v>2018</v>
+      </c>
+      <c r="F8" s="42">
+        <v>2019</v>
+      </c>
+      <c r="G8" s="42">
+        <v>2020</v>
+      </c>
+      <c r="H8" s="42">
+        <v>2021</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="27"/>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="34"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -1180,10 +1353,10 @@
     </row>
     <row r="20" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="27"/>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="37"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="12">
         <f>SUM(D9:D19)</f>
         <v>0</v>
@@ -1207,10 +1380,10 @@
     </row>
     <row r="21" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="27"/>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="34"/>
+      <c r="C21" s="36"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
@@ -1449,10 +1622,10 @@
     </row>
     <row r="33" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="27"/>
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="37"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="12">
         <f>SUM(D21:D32)</f>
         <v>0</v>
@@ -1476,10 +1649,10 @@
     </row>
     <row r="34" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="27"/>
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="37"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="15">
         <f>+D20+D33</f>
         <v>0</v>
@@ -1525,33 +1698,33 @@
         <v>34</v>
       </c>
       <c r="C37" s="39"/>
-      <c r="D37" s="28" t="str">
+      <c r="D37" s="28">
         <f>+D8</f>
-        <v>Año1</v>
-      </c>
-      <c r="E37" s="28" t="str">
+        <v>2017</v>
+      </c>
+      <c r="E37" s="28">
         <f>+E8</f>
-        <v>Año2</v>
-      </c>
-      <c r="F37" s="28" t="str">
+        <v>2018</v>
+      </c>
+      <c r="F37" s="28">
         <f>+F8</f>
-        <v>Año3</v>
-      </c>
-      <c r="G37" s="28" t="str">
+        <v>2019</v>
+      </c>
+      <c r="G37" s="28">
         <f>+G8</f>
-        <v>Año4</v>
-      </c>
-      <c r="H37" s="28" t="str">
+        <v>2020</v>
+      </c>
+      <c r="H37" s="28">
         <f>+H8</f>
-        <v>Año5</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="27"/>
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="34"/>
+      <c r="C38" s="36"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
@@ -1724,10 +1897,10 @@
     </row>
     <row r="47" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="27"/>
-      <c r="B47" s="36" t="s">
+      <c r="B47" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C47" s="37"/>
+      <c r="C47" s="34"/>
       <c r="D47" s="12">
         <f>SUM(D38:D46)</f>
         <v>0</v>
@@ -1751,10 +1924,10 @@
     </row>
     <row r="48" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="27"/>
-      <c r="B48" s="33" t="s">
+      <c r="B48" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C48" s="34"/>
+      <c r="C48" s="36"/>
       <c r="D48" s="13"/>
       <c r="E48" s="13"/>
       <c r="F48" s="13"/>
@@ -1905,10 +2078,10 @@
     </row>
     <row r="56" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="27"/>
-      <c r="B56" s="36" t="s">
+      <c r="B56" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C56" s="37"/>
+      <c r="C56" s="34"/>
       <c r="D56" s="12">
         <f>SUM(D48:D55)</f>
         <v>0</v>
@@ -1932,10 +2105,10 @@
     </row>
     <row r="57" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="27"/>
-      <c r="B57" s="33" t="s">
+      <c r="B57" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="C57" s="34"/>
+      <c r="C57" s="36"/>
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
@@ -2042,10 +2215,10 @@
     </row>
     <row r="63" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="27"/>
-      <c r="B63" s="36" t="s">
+      <c r="B63" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="C63" s="37"/>
+      <c r="C63" s="34"/>
       <c r="D63" s="12">
         <f>SUM(D57:D62)</f>
         <v>0</v>
@@ -2069,10 +2242,10 @@
     </row>
     <row r="64" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="27"/>
-      <c r="B64" s="36" t="s">
+      <c r="B64" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C64" s="37"/>
+      <c r="C64" s="34"/>
       <c r="D64" s="15">
         <f>+D47+D56+D63</f>
         <v>0</v>
@@ -2155,14 +2328,8 @@
       <c r="H69" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="QkmpVKP63UkNZe7U7m2VQsYGME6vLN+ETDu+jrGOcwHwr4rjKmKjrrEyocDbou2lVWUvW1qlm2Khs9DYnBrmeg==" saltValue="uiP5tgrlGQnsjlKvZuoldw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="l+qgj/kt0bMNyPQ4aCqepcNWAE4wii/swXS3CWqVaN4m3tBmUfGmBu01u22vVYUZHzcIYeWgXIfmC/u6STRuYw==" saltValue="8jF2VEtaauRmxwwa782yew==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="14">
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B63:C63"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B38:C38"/>
@@ -2171,6 +2338,12 @@
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B63:C63"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Advertencia" error="Sólo debe ingresar números positivos." sqref="D10:H18 D58:H58 D49:H54 D39:H45 D22:H31" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -2184,6 +2357,9 @@
   </dataValidations>
   <pageMargins left="0.19685039370078999" right="0.19685039370078999" top="0.19685039370078999" bottom="0.19685039370078999" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup scale="76" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D20:H20" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -2196,7 +2372,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33:H33"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.5" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -2300,25 +2476,25 @@
         <v>58</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="32" t="str">
+      <c r="D8" s="32">
         <f>+Balance!D8</f>
-        <v>Año1</v>
-      </c>
-      <c r="E8" s="32" t="str">
+        <v>2017</v>
+      </c>
+      <c r="E8" s="32">
         <f>+Balance!E8</f>
-        <v>Año2</v>
-      </c>
-      <c r="F8" s="32" t="str">
+        <v>2018</v>
+      </c>
+      <c r="F8" s="32">
         <f>+Balance!F8</f>
-        <v>Año3</v>
-      </c>
-      <c r="G8" s="32" t="str">
+        <v>2019</v>
+      </c>
+      <c r="G8" s="32">
         <f>+Balance!G8</f>
-        <v>Año4</v>
-      </c>
-      <c r="H8" s="32" t="str">
+        <v>2020</v>
+      </c>
+      <c r="H8" s="32">
         <f>+Balance!H8</f>
-        <v>Año5</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
